--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-poly-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.603399433427762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.9638009049773756</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5892351274787535</v>
+        <v>0.7421602787456446</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6468028910136976</v>
+        <v>0.8182981511435065</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9579439252336449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3545454545454546</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5234899328859061</v>
+        <v>0.9447004608294931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7778691896338955</v>
+        <v>0.9759358288770055</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.926605504587156</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4590909090909091</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6139817629179333</v>
+        <v>0.9345794392523366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.86641299876594</v>
+        <v>0.9754010695187166</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.933649289099526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4298642533936652</v>
+        <v>0.8914027149321267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6012658227848101</v>
+        <v>0.9120370370370371</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9567256273138626</v>
+        <v>0.9797202797202798</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4660633484162896</v>
+        <v>0.7918552036199095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6358024691358024</v>
+        <v>0.8838383838383839</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9894282188399834</v>
+        <v>0.9987248046071575</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9428968584931887</v>
+        <v>0.8913062218598788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4360304401480872</v>
+        <v>0.8975935828877006</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5927550230406411</v>
+        <v>0.8834631199405791</v>
       </c>
       <c r="E7" t="n">
-        <v>0.847447785113476</v>
+        <v>0.9496160267733332</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/smote/bloated-svm-poly-results.xlsx
+++ b/mbs-perturbation/bloated/svm/smote/bloated-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.603399433427762</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9638009049773756</v>
+        <v>0.9751243781094527</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7421602787456446</v>
+        <v>0.801635991820041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8182981511435065</v>
+        <v>0.8745699363877132</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9579439252336449</v>
+        <v>0.8854166666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.845771144278607</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9447004608294931</v>
+        <v>0.8651399491094148</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9759358288770055</v>
+        <v>0.9729462142026187</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9528795811518325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9054726368159204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9345794392523366</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9754010695187166</v>
+        <v>0.9789361649464122</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.933649289099526</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8914027149321267</v>
+        <v>0.945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9120370370370371</v>
+        <v>0.9717223650385605</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9797202797202798</v>
+        <v>0.9995771144278609</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7918552036199095</v>
+        <v>0.8905472636815921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8838383838383839</v>
+        <v>0.9421052631578948</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9987248046071575</v>
+        <v>0.9977860696517413</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8913062218598788</v>
+        <v>0.903770360674811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8975935828877006</v>
+        <v>0.9123830845771144</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8834631199405791</v>
+        <v>0.9018349995394679</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9496160267733332</v>
+        <v>0.9647630999232693</v>
       </c>
     </row>
   </sheetData>
